--- a/docs/Biomes10x10.xlsx
+++ b/docs/Biomes10x10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\220\Documents\git\DM2020_AltExam_zpgGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7BF22D-8929-421E-9208-38BC803D0671}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D80A49-9714-4071-A6F9-CADFADA2FD50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="1965" windowWidth="17445" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1650" windowWidth="22365" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,17 +334,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -371,6 +362,17 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,262 +667,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="19">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="16">
         <v>9</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="17">
         <v>8</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <v>7</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>6</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="17">
         <v>4</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="17">
         <v>3</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="17">
         <v>1</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="31">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="5">
+        <v>28</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="25">
+        <v>23</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="27" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26">
+        <v>25</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="17">
+      <c r="L3" s="24">
+        <v>22</v>
+      </c>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="14">
         <v>8</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="17">
+      <c r="D4" s="8">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="14">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="26" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
+        <v>17</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="23">
+        <v>7</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="17">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21">
+        <v>10</v>
+      </c>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="14">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="12">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="17">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="9" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="9">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
+        <v>9</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="17">
+      <c r="J7" s="6">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="14">
         <v>4</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="17">
+      <c r="D8" s="9"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="14">
         <v>3</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="23" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="17">
+      <c r="G9" s="20">
+        <v>5</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <v>14</v>
+      </c>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="14">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="14" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="17">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="14">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="10" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="18">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="15">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -928,5 +971,6 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>